--- a/biology/Zoologie/Brontotheriidae/Brontotheriidae.xlsx
+++ b/biology/Zoologie/Brontotheriidae/Brontotheriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Brontotheriidae (brontotheridés en français, encore appelés titanothères, « animaux du tonnerre ») forment une famille éteinte de périssodactyles qui a succédé aux dinocérates dans la même niche écologique.
 </t>
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">▲
 └─o Perissodactyla ou Mesaxonia
@@ -552,7 +566,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Brontotheriidae sont apparus à l'Éocène il y a environ 50 millions d'années en Amérique du Nord et en Asie de l'Est. Ils disparurent pendant l'Oligocène il y a 28 millions d'années.
 Quarante types de brontothères sont répertoriés sur une période de quinze millions d'années. Ce qui d'un point de vue biologique est peu pour un ordre animal.
@@ -587,25 +603,202 @@
           <t>Quelques genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres décrits vécurent de l'Éocène inférieur à l'Oligocène inférieur (−58,7 Ma à −33,9 Ma) en Amérique du Nord et en Asie. 
-Eotitanops
-Eotitanops peuplait les sous-bois des forêts d'Asie où il apparut à l'Éocène inférieur et d'Amérique du Nord qu'il colonisa à l'Éocène moyen. Il mesurait 45 cm au garrot. Il disparut des deux continents à la même époque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Eotitanops</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eotitanops peuplait les sous-bois des forêts d'Asie où il apparut à l'Éocène inférieur et d'Amérique du Nord qu'il colonisa à l'Éocène moyen. Il mesurait 45 cm au garrot. Il disparut des deux continents à la même époque.
 Très semblable à Hyracotherium, il possédait tout comme lui quatre doigts aux pattes antérieures et trois doigts aux pattes postérieures. Comme la plupart des scientifiques s'accordent à le dire Hyracotherium donna naissance aux chevaux tandis que Eotitanops donna naissance aux brontothères dont la taille fut nettement supérieure. 
-Dolichorhinus
-Dolichorhinus mesurait 1,20 m au garrot et vécut pendant l'Éocène supérieur en Amérique du Nord. Son crâne semblable à celui d'un rhinocéros sans corne est très allongé et pourvu de dents à couronnes basses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dolichorhinus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolichorhinus mesurait 1,20 m au garrot et vécut pendant l'Éocène supérieur en Amérique du Nord. Son crâne semblable à celui d'un rhinocéros sans corne est très allongé et pourvu de dents à couronnes basses.
 La forme de ces dents laisse penser qu'il mâchait les feuilles tendres des arbres des forêts qu'il habitait. Tout comme Eotitanops, il était pourvu de quatre doigts aux membres antérieurs et trois doigts aux membres postérieurs. Cette conformation des pieds faits pour la course ne se modifia jamais chez les brontothères.
-Brontops
-Lors de la transition Éocène-Oligocène, les brontothères devinrent énormes et leur cornes apparurent. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quelques genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Brontops</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la transition Éocène-Oligocène, les brontothères devinrent énormes et leur cornes apparurent. 
 Ainsi Brontops en était pourvu et mesurait 2,50 m au garrot. Il vécut à l'Oligocène inférieur en Amérique du Nord. L'un des squelettes retrouvés montre des côtes fracturées avec des cicatrices très nettes, accréditant la thèse selon laquelle les Brontotheriidae tardifs se servaient de leurs cornes lors de combats entre mâles lors des périodes de reproduction.
-Embolotherium
-Contemporain de Brontops, Embolotherium vécut en Mongolie pendant la même période. Il mesurait également 2,50 m au garrot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quelques genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Embolotherium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contemporain de Brontops, Embolotherium vécut en Mongolie pendant la même période. Il mesurait également 2,50 m au garrot.
 En lieu et place de deux cornes disjointes à l'extrémité du museau comme chez Brontops et Brontotherium, Embolotherium possédait une large plaque discontinue qui prenait naissance au sommet du crâne.
 Cette imposante corne, ainsi que des yeux situés très en avant sur le crâne près des naseaux, indique que le cerveau de l'animal était, comme chez tous les grands Brontotheriidae, de taille modeste ne dépassant pas le diamètre d'une orange.
 Ses restes, découverts dans le désert de Gobi, indiquent la large répartition géographique des Brontotheriidae et le succès, bien que bref, de leur lignée.
-Brontotherium
-Brontotherium, aussi appelé Mégacerops, vécut en Amérique du Nord pendant l'Éocène, dans les États du Nebraska et du Dakota du Sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Quelques genres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Brontotherium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brontotherium, aussi appelé Mégacerops, vécut en Amérique du Nord pendant l'Éocène, dans les États du Nebraska et du Dakota du Sud.
 Les Sioux attribuaient ses gigantesques ossements à de grands chevaux qui galopaient dans le ciel en déclenchant le tonnerre. Cela a valu son nom à cette famille, « animal-tonnerre », attribué par le paléontologue Henry Fairfield Osborn dans la seconde moitié du XIXe siècle d'après ces légendes indiennes. On retrouve cette racine dans le nom du dinosaure sauropode Brontosaurus « lézard-tonnerre ».
 Les Sioux pensaient qu'ils bénéficiaient de l'aide d'un énorme cheval céleste durant la chasse au bison. Ils firent de certains des ossements fossiles de Brontotherium des trophées que les paléontologues purent observer avant d'en découvrir des squelettes entiers.
 Brontotherium est le plus grand des Brontotheriidae, dont il constitue le genre-type. D'une taille moyenne de 2,50 m au garrot et d'une longueur de 4,30 m, il possédait sur le museau deux cornes presque à la verticale ressemblant à une houe à deux branches. Celles-ci dépassaient le sommet de son crâne. Un homme adulte lui serait à peine parvenu en hauteur au sommet de la cuisse.
@@ -616,31 +809,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brontotheriidae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brontotheriidae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brontotheriidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
